--- a/MultivariableAnalysis/_dataset/housing_modify_org_検証.xlsx
+++ b/MultivariableAnalysis/_dataset/housing_modify_org_検証.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="6930" tabRatio="750" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="6930" tabRatio="750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
   <si>
     <t>CRIM</t>
   </si>
@@ -302,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,6 +480,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -747,7 +753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,6 +770,9 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,15 +1162,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1202,11 +1211,8 @@
       <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1225,9 +1231,8 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1248,9 +1253,8 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1273,9 +1277,8 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1300,9 +1303,8 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1329,9 +1331,8 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1360,9 +1361,8 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1393,9 +1393,8 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1428,85 +1427,96 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>0.62550514526260126</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>-0.31194782601853754</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <v>0.59512927460384857</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="6">
         <v>-7.3682408860777232E-3</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6">
         <v>0.61144056348557552</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="6">
         <v>-0.20984666776610875</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="6">
         <v>0.45602245175161338</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="6">
         <v>-0.49458792967207543</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="K10" s="6">
+        <v>0.91022818853318221</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.4647411785030543</v>
+      </c>
+      <c r="M10" s="6">
+        <v>-0.44441281557512585</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0.48867633497506641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>0.5827643120325845</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>-0.31456332467759884</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <v>0.72076017995154407</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="6">
         <v>-3.5586517585911172E-2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <v>0.66802320040301999</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="6">
         <v>-0.29204783262321909</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="6">
         <v>0.50645559355070491</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="6">
         <v>-0.53443158440845606</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="6">
         <v>0.91022818853318221</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="6">
         <v>1</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="L11" s="6">
+        <v>0.46085303506566561</v>
+      </c>
+      <c r="M11" s="6">
+        <v>-0.44180800672281384</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0.54399341200156903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1545,9 +1555,8 @@
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1588,9 +1597,8 @@
         <v>1</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1633,53 +1641,37 @@
       <c r="N14" s="1">
         <v>1</v>
       </c>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>-0.38830460858681137</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.3604453424505446</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-0.48372516002837296</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.17526017719029746</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-0.42732077237328164</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.69535994707153892</v>
-      </c>
-      <c r="H15" s="2">
-        <v>-0.3769545650045959</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.24992873408590391</v>
-      </c>
-      <c r="J15" s="2">
-        <v>-0.38162623063977752</v>
-      </c>
-      <c r="K15" s="2">
-        <v>-0.46853593356776635</v>
-      </c>
-      <c r="L15" s="2">
-        <v>-0.50778668553756101</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.33346081965706648</v>
-      </c>
-      <c r="N15" s="2">
-        <v>-0.7376627261740144</v>
-      </c>
-      <c r="O15" s="2">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1692,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
